--- a/assets/worksheets/template-tesoura.xlsx
+++ b/assets/worksheets/template-tesoura.xlsx
@@ -612,6 +612,17 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
     </border>
     <border>
       <left style="thin">
@@ -648,22 +659,11 @@
       </top>
       <bottom/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="102">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -806,11 +806,9 @@
     <xf borderId="4" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="6" fillId="2" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="2" fillId="4" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="4" fillId="2" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="9" fillId="3" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -820,6 +818,7 @@
     <xf borderId="9" fillId="2" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
+    <xf borderId="4" fillId="2" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="0" fillId="2" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
@@ -855,24 +854,21 @@
     <xf borderId="33" fillId="4" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="6" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf borderId="4" fillId="4" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="33" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="9" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf borderId="2" fillId="4" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf borderId="34" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="35" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="35" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="36" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="36" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="37" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="38" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="11" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="38" fillId="4" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="33" fillId="4" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="9" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -1012,7 +1008,7 @@
     <xdr:ext cx="428625" cy="95250"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png" title="Imagem"/>
+        <xdr:cNvPr id="0" name="image4.png" title="Imagem"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1032,15 +1028,15 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>904875</xdr:colOff>
       <xdr:row>47</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="962025" cy="314325"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image4.png" title="Imagem"/>
+        <xdr:cNvPr id="0" name="image1.png" title="Imagem"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1068,7 +1064,7 @@
     <xdr:ext cx="962025" cy="314325"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image4.png" title="Imagem"/>
+        <xdr:cNvPr id="0" name="image1.png" title="Imagem"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1587,21 +1583,13 @@
     </row>
     <row r="19" ht="18.75" customHeight="1">
       <c r="A19" s="1"/>
-      <c r="B19" s="64"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="16"/>
-      <c r="K19" s="15"/>
+      <c r="B19" s="12"/>
+      <c r="K19" s="13"/>
       <c r="L19" s="11"/>
     </row>
     <row r="20" ht="13.5" customHeight="1">
       <c r="A20" s="61"/>
-      <c r="B20" s="65" t="s">
+      <c r="B20" s="64" t="s">
         <v>27</v>
       </c>
       <c r="C20" s="7"/>
@@ -1635,20 +1623,20 @@
     </row>
     <row r="24" ht="18.75" customHeight="1">
       <c r="A24" s="1"/>
-      <c r="B24" s="66"/>
+      <c r="B24" s="12"/>
       <c r="K24" s="13"/>
       <c r="L24" s="11"/>
     </row>
     <row r="25" ht="18.75" customHeight="1">
       <c r="A25" s="1"/>
-      <c r="B25" s="67" t="s">
+      <c r="B25" s="65" t="s">
         <v>28</v>
       </c>
       <c r="C25" s="23"/>
       <c r="D25" s="23"/>
       <c r="E25" s="23"/>
       <c r="F25" s="18"/>
-      <c r="G25" s="67" t="s">
+      <c r="G25" s="65" t="s">
         <v>29</v>
       </c>
       <c r="H25" s="23"/>
@@ -1659,12 +1647,12 @@
     </row>
     <row r="26" ht="18.75" customHeight="1">
       <c r="A26" s="1"/>
-      <c r="B26" s="68"/>
+      <c r="B26" s="66"/>
       <c r="C26" s="23"/>
       <c r="D26" s="23"/>
       <c r="E26" s="23"/>
       <c r="F26" s="18"/>
-      <c r="G26" s="69"/>
+      <c r="G26" s="67"/>
       <c r="H26" s="23"/>
       <c r="I26" s="23"/>
       <c r="J26" s="23"/>
@@ -1673,13 +1661,13 @@
     </row>
     <row r="27" ht="18.75" customHeight="1">
       <c r="A27" s="1"/>
-      <c r="B27" s="66"/>
+      <c r="B27" s="68"/>
       <c r="K27" s="13"/>
       <c r="L27" s="11"/>
     </row>
     <row r="28" ht="13.5" customHeight="1">
       <c r="A28" s="61"/>
-      <c r="B28" s="65" t="s">
+      <c r="B28" s="64" t="s">
         <v>30</v>
       </c>
       <c r="C28" s="7"/>
@@ -1694,18 +1682,18 @@
       <c r="L28" s="11"/>
     </row>
     <row r="29" ht="18.75" customHeight="1">
-      <c r="A29" s="70"/>
-      <c r="B29" s="71" t="s">
+      <c r="A29" s="69"/>
+      <c r="B29" s="70" t="s">
         <v>31</v>
       </c>
       <c r="C29" s="23"/>
       <c r="D29" s="18"/>
-      <c r="E29" s="71" t="s">
+      <c r="E29" s="70" t="s">
         <v>32</v>
       </c>
       <c r="F29" s="23"/>
       <c r="G29" s="18"/>
-      <c r="H29" s="71" t="s">
+      <c r="H29" s="70" t="s">
         <v>33</v>
       </c>
       <c r="I29" s="23"/>
@@ -1714,75 +1702,75 @@
       <c r="L29" s="11"/>
     </row>
     <row r="30" ht="18.75" customHeight="1">
-      <c r="A30" s="72"/>
-      <c r="B30" s="73" t="s">
+      <c r="A30" s="71"/>
+      <c r="B30" s="72" t="s">
         <v>34</v>
       </c>
-      <c r="C30" s="73" t="s">
+      <c r="C30" s="72" t="s">
         <v>35</v>
       </c>
-      <c r="D30" s="73" t="s">
+      <c r="D30" s="72" t="s">
         <v>36</v>
       </c>
-      <c r="E30" s="73" t="s">
+      <c r="E30" s="72" t="s">
         <v>37</v>
       </c>
-      <c r="F30" s="73" t="s">
+      <c r="F30" s="72" t="s">
         <v>35</v>
       </c>
-      <c r="G30" s="73" t="s">
+      <c r="G30" s="72" t="s">
         <v>38</v>
       </c>
-      <c r="H30" s="73" t="s">
+      <c r="H30" s="72" t="s">
         <v>34</v>
       </c>
-      <c r="I30" s="73" t="s">
+      <c r="I30" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="J30" s="74" t="s">
+      <c r="J30" s="73" t="s">
         <v>38</v>
       </c>
       <c r="K30" s="18"/>
       <c r="L30" s="11"/>
     </row>
     <row r="31" ht="18.75" customHeight="1">
-      <c r="A31" s="72"/>
-      <c r="B31" s="73"/>
-      <c r="C31" s="73"/>
-      <c r="D31" s="73"/>
-      <c r="E31" s="73"/>
-      <c r="F31" s="73"/>
-      <c r="G31" s="73"/>
-      <c r="H31" s="75"/>
-      <c r="I31" s="73"/>
-      <c r="J31" s="74"/>
+      <c r="A31" s="71"/>
+      <c r="B31" s="72"/>
+      <c r="C31" s="72"/>
+      <c r="D31" s="72"/>
+      <c r="E31" s="72"/>
+      <c r="F31" s="72"/>
+      <c r="G31" s="72"/>
+      <c r="H31" s="74"/>
+      <c r="I31" s="72"/>
+      <c r="J31" s="73"/>
       <c r="K31" s="18"/>
       <c r="L31" s="11"/>
     </row>
     <row r="32" ht="18.0" customHeight="1">
-      <c r="A32" s="72"/>
-      <c r="B32" s="73"/>
-      <c r="C32" s="73"/>
-      <c r="D32" s="73"/>
-      <c r="E32" s="73"/>
-      <c r="F32" s="73"/>
-      <c r="G32" s="73"/>
-      <c r="H32" s="73"/>
-      <c r="I32" s="73"/>
-      <c r="J32" s="76"/>
+      <c r="A32" s="71"/>
+      <c r="B32" s="72"/>
+      <c r="C32" s="72"/>
+      <c r="D32" s="72"/>
+      <c r="E32" s="72"/>
+      <c r="F32" s="72"/>
+      <c r="G32" s="72"/>
+      <c r="H32" s="72"/>
+      <c r="I32" s="72"/>
+      <c r="J32" s="75"/>
       <c r="K32" s="18"/>
       <c r="L32" s="11"/>
       <c r="Z32" s="2"/>
-      <c r="AA32" s="77"/>
-      <c r="AB32" s="77"/>
-      <c r="AC32" s="77"/>
-      <c r="AD32" s="77"/>
-      <c r="AE32" s="77"/>
-      <c r="AF32" s="77"/>
+      <c r="AA32" s="76"/>
+      <c r="AB32" s="76"/>
+      <c r="AC32" s="76"/>
+      <c r="AD32" s="76"/>
+      <c r="AE32" s="76"/>
+      <c r="AF32" s="76"/>
     </row>
     <row r="33" ht="18.75" customHeight="1">
-      <c r="A33" s="78"/>
-      <c r="B33" s="79"/>
+      <c r="A33" s="77"/>
+      <c r="B33" s="78"/>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
       <c r="E33" s="7"/>
@@ -1794,16 +1782,16 @@
       <c r="K33" s="8"/>
       <c r="L33" s="11"/>
       <c r="Z33" s="1"/>
-      <c r="AA33" s="77"/>
-      <c r="AB33" s="77"/>
-      <c r="AC33" s="77"/>
-      <c r="AD33" s="77"/>
-      <c r="AE33" s="77"/>
-      <c r="AF33" s="77"/>
+      <c r="AA33" s="76"/>
+      <c r="AB33" s="76"/>
+      <c r="AC33" s="76"/>
+      <c r="AD33" s="76"/>
+      <c r="AE33" s="76"/>
+      <c r="AF33" s="76"/>
     </row>
     <row r="34" ht="18.75" customHeight="1">
-      <c r="A34" s="78"/>
-      <c r="B34" s="80" t="s">
+      <c r="A34" s="77"/>
+      <c r="B34" s="79" t="s">
         <v>40</v>
       </c>
       <c r="C34" s="23"/>
@@ -1816,13 +1804,13 @@
       <c r="J34" s="23"/>
       <c r="K34" s="18"/>
       <c r="L34" s="11"/>
-      <c r="Z34" s="77"/>
-      <c r="AA34" s="77"/>
-      <c r="AB34" s="77"/>
-      <c r="AC34" s="77"/>
-      <c r="AD34" s="77"/>
-      <c r="AE34" s="77"/>
-      <c r="AF34" s="77"/>
+      <c r="Z34" s="76"/>
+      <c r="AA34" s="76"/>
+      <c r="AB34" s="76"/>
+      <c r="AC34" s="76"/>
+      <c r="AD34" s="76"/>
+      <c r="AE34" s="76"/>
+      <c r="AF34" s="76"/>
     </row>
     <row r="35" ht="18.75" customHeight="1">
       <c r="A35" s="1"/>
@@ -1844,51 +1832,43 @@
     </row>
     <row r="38" ht="18.75" customHeight="1">
       <c r="A38" s="1"/>
-      <c r="B38" s="64"/>
-      <c r="C38" s="16"/>
-      <c r="D38" s="16"/>
-      <c r="E38" s="16"/>
-      <c r="F38" s="16"/>
-      <c r="G38" s="16"/>
-      <c r="H38" s="16"/>
-      <c r="I38" s="16"/>
-      <c r="J38" s="16"/>
-      <c r="K38" s="15"/>
+      <c r="B38" s="12"/>
+      <c r="K38" s="13"/>
       <c r="L38" s="11"/>
     </row>
     <row r="39" ht="15.0" customHeight="1">
-      <c r="A39" s="81"/>
-      <c r="B39" s="82" t="s">
+      <c r="A39" s="80"/>
+      <c r="B39" s="81" t="s">
         <v>41</v>
       </c>
-      <c r="C39" s="83" t="s">
+      <c r="C39" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="D39" s="16"/>
-      <c r="E39" s="15"/>
-      <c r="F39" s="84" t="s">
+      <c r="D39" s="23"/>
+      <c r="E39" s="18"/>
+      <c r="F39" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="G39" s="13"/>
-      <c r="H39" s="83" t="s">
+      <c r="G39" s="8"/>
+      <c r="H39" s="82" t="s">
         <v>43</v>
       </c>
-      <c r="I39" s="16"/>
-      <c r="J39" s="16"/>
-      <c r="K39" s="15"/>
+      <c r="I39" s="23"/>
+      <c r="J39" s="23"/>
+      <c r="K39" s="18"/>
       <c r="L39" s="11"/>
     </row>
     <row r="40" ht="15.0" customHeight="1">
-      <c r="A40" s="81"/>
-      <c r="B40" s="85"/>
-      <c r="C40" s="86" t="s">
+      <c r="A40" s="80"/>
+      <c r="B40" s="84"/>
+      <c r="C40" s="82" t="s">
         <v>44</v>
       </c>
       <c r="D40" s="23"/>
       <c r="E40" s="18"/>
       <c r="F40" s="12"/>
       <c r="G40" s="13"/>
-      <c r="H40" s="86" t="s">
+      <c r="H40" s="82" t="s">
         <v>44</v>
       </c>
       <c r="I40" s="23"/>
@@ -1897,33 +1877,33 @@
       <c r="L40" s="11"/>
     </row>
     <row r="41" ht="15.0" customHeight="1">
-      <c r="A41" s="81"/>
-      <c r="B41" s="87"/>
-      <c r="C41" s="88"/>
-      <c r="D41" s="89"/>
-      <c r="E41" s="90"/>
-      <c r="F41" s="91"/>
+      <c r="A41" s="80"/>
+      <c r="B41" s="85"/>
+      <c r="C41" s="86"/>
+      <c r="D41" s="87"/>
+      <c r="E41" s="88"/>
+      <c r="F41" s="89"/>
       <c r="G41" s="45"/>
-      <c r="H41" s="88" t="s">
+      <c r="H41" s="86" t="s">
         <v>45</v>
       </c>
-      <c r="I41" s="89"/>
-      <c r="J41" s="89"/>
-      <c r="K41" s="90"/>
+      <c r="I41" s="87"/>
+      <c r="J41" s="87"/>
+      <c r="K41" s="88"/>
       <c r="L41" s="11"/>
     </row>
     <row r="42">
       <c r="A42" s="61"/>
-      <c r="B42" s="92" t="s">
+      <c r="B42" s="90" t="s">
         <v>46</v>
       </c>
-      <c r="C42" s="93" t="s">
+      <c r="C42" s="91" t="s">
         <v>47</v>
       </c>
       <c r="D42" s="23"/>
       <c r="E42" s="23"/>
       <c r="F42" s="18"/>
-      <c r="G42" s="93" t="s">
+      <c r="G42" s="91" t="s">
         <v>48</v>
       </c>
       <c r="H42" s="23"/>
@@ -1934,12 +1914,12 @@
     </row>
     <row r="43">
       <c r="A43" s="61"/>
-      <c r="B43" s="85"/>
-      <c r="C43" s="94"/>
+      <c r="B43" s="84"/>
+      <c r="C43" s="92"/>
       <c r="D43" s="16"/>
       <c r="E43" s="16"/>
       <c r="F43" s="16"/>
-      <c r="G43" s="94"/>
+      <c r="G43" s="92"/>
       <c r="H43" s="16"/>
       <c r="I43" s="16"/>
       <c r="J43" s="16"/>
@@ -1948,12 +1928,12 @@
     </row>
     <row r="44">
       <c r="A44" s="61"/>
-      <c r="B44" s="85"/>
-      <c r="C44" s="94"/>
+      <c r="B44" s="84"/>
+      <c r="C44" s="92"/>
       <c r="D44" s="16"/>
       <c r="E44" s="16"/>
       <c r="F44" s="16"/>
-      <c r="G44" s="94"/>
+      <c r="G44" s="92"/>
       <c r="H44" s="16"/>
       <c r="I44" s="16"/>
       <c r="J44" s="16"/>
@@ -1962,12 +1942,12 @@
     </row>
     <row r="45">
       <c r="A45" s="61"/>
-      <c r="B45" s="85"/>
-      <c r="C45" s="94"/>
+      <c r="B45" s="84"/>
+      <c r="C45" s="92"/>
       <c r="D45" s="16"/>
       <c r="E45" s="16"/>
       <c r="F45" s="16"/>
-      <c r="G45" s="94"/>
+      <c r="G45" s="92"/>
       <c r="H45" s="16"/>
       <c r="I45" s="16"/>
       <c r="J45" s="16"/>
@@ -1976,12 +1956,12 @@
     </row>
     <row r="46">
       <c r="A46" s="61"/>
-      <c r="B46" s="85"/>
-      <c r="C46" s="94"/>
+      <c r="B46" s="84"/>
+      <c r="C46" s="92"/>
       <c r="D46" s="16"/>
       <c r="E46" s="16"/>
       <c r="F46" s="16"/>
-      <c r="G46" s="94"/>
+      <c r="G46" s="92"/>
       <c r="H46" s="16"/>
       <c r="I46" s="16"/>
       <c r="J46" s="16"/>
@@ -1990,12 +1970,12 @@
     </row>
     <row r="47">
       <c r="A47" s="61"/>
-      <c r="B47" s="87"/>
-      <c r="C47" s="94"/>
+      <c r="B47" s="85"/>
+      <c r="C47" s="92"/>
       <c r="D47" s="16"/>
       <c r="E47" s="16"/>
       <c r="F47" s="16"/>
-      <c r="G47" s="94"/>
+      <c r="G47" s="92"/>
       <c r="H47" s="16"/>
       <c r="I47" s="16"/>
       <c r="J47" s="16"/>
@@ -2004,11 +1984,11 @@
     </row>
     <row r="48" ht="18.75" customHeight="1">
       <c r="A48" s="5"/>
-      <c r="B48" s="95" t="s">
+      <c r="B48" s="93" t="s">
         <v>49</v>
       </c>
       <c r="F48" s="13"/>
-      <c r="G48" s="96" t="s">
+      <c r="G48" s="94" t="s">
         <v>49</v>
       </c>
       <c r="K48" s="13"/>
@@ -2029,20 +2009,20 @@
       <c r="L50" s="11"/>
     </row>
     <row r="51" ht="21.0" customHeight="1">
-      <c r="A51" s="97"/>
-      <c r="B51" s="98" t="s">
+      <c r="A51" s="95"/>
+      <c r="B51" s="96" t="s">
         <v>50</v>
       </c>
       <c r="F51" s="13"/>
-      <c r="G51" s="99" t="s">
+      <c r="G51" s="97" t="s">
         <v>51</v>
       </c>
       <c r="K51" s="13"/>
       <c r="L51" s="11"/>
     </row>
     <row r="52" ht="21.75" customHeight="1">
-      <c r="A52" s="100"/>
-      <c r="B52" s="101" t="s">
+      <c r="A52" s="98"/>
+      <c r="B52" s="99" t="s">
         <v>52</v>
       </c>
       <c r="C52" s="7"/>
@@ -2057,8 +2037,8 @@
       <c r="L52" s="11"/>
     </row>
     <row r="53">
-      <c r="A53" s="102"/>
-      <c r="B53" s="103" t="s">
+      <c r="A53" s="100"/>
+      <c r="B53" s="101" t="s">
         <v>53</v>
       </c>
       <c r="C53" s="16"/>
@@ -4914,7 +4894,7 @@
       <c r="A1000" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="74">
+  <mergeCells count="71">
     <mergeCell ref="B2:D5"/>
     <mergeCell ref="E2:I5"/>
     <mergeCell ref="J2:K4"/>
@@ -4941,15 +4921,13 @@
     <mergeCell ref="F14:H14"/>
     <mergeCell ref="I14:K14"/>
     <mergeCell ref="B15:K15"/>
-    <mergeCell ref="B16:K18"/>
-    <mergeCell ref="B19:K19"/>
+    <mergeCell ref="B16:K19"/>
     <mergeCell ref="B20:K20"/>
-    <mergeCell ref="B21:K23"/>
-    <mergeCell ref="B24:K24"/>
     <mergeCell ref="B25:F25"/>
     <mergeCell ref="G25:K25"/>
     <mergeCell ref="B26:F26"/>
     <mergeCell ref="G26:K26"/>
+    <mergeCell ref="B21:K24"/>
     <mergeCell ref="B27:K27"/>
     <mergeCell ref="B28:K28"/>
     <mergeCell ref="B29:D29"/>
@@ -4959,19 +4937,18 @@
     <mergeCell ref="J31:K31"/>
     <mergeCell ref="C39:E39"/>
     <mergeCell ref="H39:K39"/>
+    <mergeCell ref="B35:K38"/>
     <mergeCell ref="F39:G41"/>
     <mergeCell ref="C42:F42"/>
+    <mergeCell ref="B48:F50"/>
+    <mergeCell ref="G48:K50"/>
     <mergeCell ref="B51:F51"/>
     <mergeCell ref="G51:K51"/>
     <mergeCell ref="B52:K52"/>
     <mergeCell ref="B53:K53"/>
-    <mergeCell ref="B48:F50"/>
-    <mergeCell ref="G48:K50"/>
     <mergeCell ref="J32:K32"/>
     <mergeCell ref="B33:K33"/>
     <mergeCell ref="B34:K34"/>
-    <mergeCell ref="B35:K37"/>
-    <mergeCell ref="B38:K38"/>
     <mergeCell ref="B39:B41"/>
     <mergeCell ref="B42:B47"/>
     <mergeCell ref="C40:E40"/>
